--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd44-Sele.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd44-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="H2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="I2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="J2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20250548638032</v>
+        <v>9.112632333333332</v>
       </c>
       <c r="N2">
-        <v>3.20250548638032</v>
+        <v>27.337897</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="Q2">
-        <v>55.22349557587631</v>
+        <v>192.1394791304076</v>
       </c>
       <c r="R2">
-        <v>55.22349557587631</v>
+        <v>1729.255312173669</v>
       </c>
       <c r="S2">
-        <v>0.03080995087263063</v>
+        <v>0.03375145948491259</v>
       </c>
       <c r="T2">
-        <v>0.03080995087263063</v>
+        <v>0.03502714343990081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.8272512362666</v>
+        <v>21.084959</v>
       </c>
       <c r="H3">
-        <v>76.8272512362666</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="I3">
-        <v>0.1372689431029865</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="J3">
-        <v>0.1372689431029865</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.20250548638032</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N3">
-        <v>3.20250548638032</v>
+        <v>0.050014</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="Q3">
-        <v>246.039693587663</v>
+        <v>0.3515143798086666</v>
       </c>
       <c r="R3">
-        <v>246.039693587663</v>
+        <v>3.163629418278</v>
       </c>
       <c r="S3">
-        <v>0.1372689431029865</v>
+        <v>6.174745243492645E-05</v>
       </c>
       <c r="T3">
-        <v>0.1372689431029865</v>
+        <v>6.408128437981894E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>131.584602902164</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="H4">
-        <v>131.584602902164</v>
+        <v>243.189949</v>
       </c>
       <c r="I4">
-        <v>0.2351051102096407</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="J4">
-        <v>0.2351051102096407</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.20250548638032</v>
+        <v>9.112632333333332</v>
       </c>
       <c r="N4">
-        <v>3.20250548638032</v>
+        <v>27.337897</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="Q4">
-        <v>421.4004127173559</v>
+        <v>738.7001974663614</v>
       </c>
       <c r="R4">
-        <v>421.4004127173559</v>
+        <v>6648.301777197253</v>
       </c>
       <c r="S4">
-        <v>0.2351051102096407</v>
+        <v>0.1297609939358741</v>
       </c>
       <c r="T4">
-        <v>0.2351051102096407</v>
+        <v>0.1346654934885916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>287.116449855948</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="H5">
-        <v>287.116449855948</v>
+        <v>243.189949</v>
       </c>
       <c r="I5">
-        <v>0.5129972891780739</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="J5">
-        <v>0.5129972891780739</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.20250548638032</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N5">
-        <v>3.20250548638032</v>
+        <v>0.050014</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="Q5">
-        <v>919.4920058937136</v>
+        <v>1.351433567698444</v>
       </c>
       <c r="R5">
-        <v>919.4920058937136</v>
+        <v>12.162902109286</v>
       </c>
       <c r="S5">
-        <v>0.5129972891780739</v>
+        <v>0.0002373944985859302</v>
       </c>
       <c r="T5">
-        <v>0.5129972891780739</v>
+        <v>0.0002463671580640757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,362 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.9120012692379</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="H6">
-        <v>46.9120012692379</v>
+        <v>410.998253</v>
       </c>
       <c r="I6">
-        <v>0.08381870663666834</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="J6">
-        <v>0.08381870663666834</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.20250548638032</v>
+        <v>9.112632333333332</v>
       </c>
       <c r="N6">
-        <v>3.20250548638032</v>
+        <v>27.337897</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="Q6">
-        <v>150.2359414418149</v>
+        <v>1248.425323077104</v>
       </c>
       <c r="R6">
-        <v>150.2359414418149</v>
+        <v>11235.82790769394</v>
       </c>
       <c r="S6">
-        <v>0.08381870663666834</v>
+        <v>0.2192999424297253</v>
       </c>
       <c r="T6">
-        <v>0.08381870663666834</v>
+        <v>0.2275886926691778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="H7">
+        <v>410.998253</v>
+      </c>
+      <c r="I7">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="J7">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.050014</v>
+      </c>
+      <c r="O7">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P7">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q7">
+        <v>2.283962958393555</v>
+      </c>
+      <c r="R7">
+        <v>20.555666625542</v>
+      </c>
+      <c r="S7">
+        <v>0.0004012037692833609</v>
+      </c>
+      <c r="T7">
+        <v>0.0004163678308962924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>316.292811</v>
+      </c>
+      <c r="H8">
+        <v>948.878433</v>
+      </c>
+      <c r="I8">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="J8">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.112632333333332</v>
+      </c>
+      <c r="N8">
+        <v>27.337897</v>
+      </c>
+      <c r="O8">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="P8">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="Q8">
+        <v>2882.260096319488</v>
+      </c>
+      <c r="R8">
+        <v>25940.3408668754</v>
+      </c>
+      <c r="S8">
+        <v>0.5063013874409533</v>
+      </c>
+      <c r="T8">
+        <v>0.5254377615771715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>316.292811</v>
+      </c>
+      <c r="H9">
+        <v>948.878433</v>
+      </c>
+      <c r="I9">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="J9">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.050014</v>
+      </c>
+      <c r="O9">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P9">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q9">
+        <v>5.273022883117999</v>
+      </c>
+      <c r="R9">
+        <v>47.457205948062</v>
+      </c>
+      <c r="S9">
+        <v>0.0009262657471959839</v>
+      </c>
+      <c r="T9">
+        <v>0.0009612752658889839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>68.131198</v>
+      </c>
+      <c r="H10">
+        <v>136.262396</v>
+      </c>
+      <c r="I10">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="J10">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.112632333333332</v>
+      </c>
+      <c r="N10">
+        <v>27.337897</v>
+      </c>
+      <c r="O10">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="P10">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="Q10">
+        <v>620.8545578035353</v>
+      </c>
+      <c r="R10">
+        <v>3725.127346821212</v>
+      </c>
+      <c r="S10">
+        <v>0.1090600825429899</v>
+      </c>
+      <c r="T10">
+        <v>0.07545477465961346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>68.131198</v>
+      </c>
+      <c r="H11">
+        <v>136.262396</v>
+      </c>
+      <c r="I11">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="J11">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.050014</v>
+      </c>
+      <c r="O11">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P11">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q11">
+        <v>1.135837912257333</v>
+      </c>
+      <c r="R11">
+        <v>6.815027473544</v>
+      </c>
+      <c r="S11">
+        <v>0.0001995226980445898</v>
+      </c>
+      <c r="T11">
+        <v>0.0001380426263156199</v>
       </c>
     </row>
   </sheetData>
